--- a/bot/db/applicants.xlsx
+++ b/bot/db/applicants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,33 +434,162 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Как вас зовут?</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Какой ваш любимый цвет?</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Какой ваш любимый фильм?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Какой ваш любимый вид спорта?</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>denis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Красный</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>UIIUII</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Баскетбол</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Синий</t>
+          <t>LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ty</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Красный</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Баскетбол</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dsa</t>
+          <t>drus1k0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Синий</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hohlo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Футбол</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Красный</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>неет</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Баскетбол</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GasBillt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Синий</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Футбол</t>
         </is>

--- a/bot/db/applicants.xlsx
+++ b/bot/db/applicants.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +445,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Как вас зовут?</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Какой ваш любимый цвет?</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Какой ваш любимый фильм?</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Какой ваш любимый вид спорта?</t>
         </is>
@@ -463,135 +472,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LowIQMulti</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>@LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>denis</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Красный</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UIIUII</t>
+          <t>Синий</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>HUI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Баскетбол</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LowIQMulti</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ty</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Красный</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ty</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Баскетбол</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>drus1k0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bob</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Синий</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Hohlo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Футбол</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LowIQMulti</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Егор</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Красный</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>неет</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Баскетбол</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GasBillt</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Синий</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Футбол</t>
         </is>
       </c>
     </row>

--- a/bot/db/applicants.xlsx
+++ b/bot/db/applicants.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +502,36 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>@GasBillt</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Синий</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>amongus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Футбол</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bot/db/applicants.xlsx
+++ b/bot/db/applicants.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
           <t>@GasBillt</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>45596</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -529,6 +529,36 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>Футбол</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>@drus1k0</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>андрюша</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Красный</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зелёная миля</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Баскетбол</t>
         </is>
       </c>
     </row>

--- a/bot/db/applicants.xlsx
+++ b/bot/db/applicants.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
           <t>@drus1k0</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>45596</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,6 +559,122 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Баскетбол</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>@LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Красный</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Футбол</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>@LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sda</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Синий</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Баскетбол</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>@LowIQMulti</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>gsdgdfs</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Красный</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Теннис</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Футбол</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>@drus1k0</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>детка да я гэй гэй гэй</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Зеленый</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Футбол</t>
         </is>
       </c>
     </row>
